--- a/0x00-okra-analysis/analysis_results.xlsx
+++ b/0x00-okra-analysis/analysis_results.xlsx
@@ -991,7 +991,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
     </row>
